--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,22</t>
+          <t>6,02; 10,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,03</t>
+          <t>5,71; 10,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,28</t>
+          <t>4,67; 9,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,56</t>
+          <t>1,62; 9,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,14</t>
+          <t>12,51; 19,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,18</t>
+          <t>7,83; 14,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,6</t>
+          <t>7,46; 13,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 21,66</t>
+          <t>10,05; 20,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,01</t>
+          <t>9,9; 13,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,21</t>
+          <t>7,47; 11,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,74</t>
+          <t>6,63; 10,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,03</t>
+          <t>6,79; 13,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,55</t>
+          <t>9,65; 14,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,82</t>
+          <t>7,09; 11,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,52</t>
+          <t>6,4; 11,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,06</t>
+          <t>5,8; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,59</t>
+          <t>15,61; 21,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,27</t>
+          <t>12,05; 17,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,68</t>
+          <t>8,68; 13,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 15,88</t>
+          <t>9,42; 15,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,11</t>
+          <t>13,07; 17,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 13,95</t>
+          <t>10,12; 13,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,72</t>
+          <t>7,99; 11,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,21</t>
+          <t>8,52; 13,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 20,14</t>
+          <t>14,12; 20,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,48</t>
+          <t>11,83; 17,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,29</t>
+          <t>7,24; 11,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,34</t>
+          <t>11,41; 17,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,14</t>
+          <t>18,79; 24,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 22,85</t>
+          <t>16,61; 22,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 16,98</t>
+          <t>11,87; 17,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 17,05</t>
+          <t>12,38; 17,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 21,7</t>
+          <t>17,41; 21,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 19,25</t>
+          <t>15,06; 19,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,86</t>
+          <t>10,12; 13,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,3</t>
+          <t>12,58; 16,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,22</t>
+          <t>14,21; 21,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 19,63</t>
+          <t>13,45; 19,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,59</t>
+          <t>12,29; 18,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,29</t>
+          <t>11,62; 18,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 32,56</t>
+          <t>24,51; 32,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,57</t>
+          <t>23,0; 30,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,85</t>
+          <t>16,52; 22,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 24,16</t>
+          <t>18,32; 23,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 25,24</t>
+          <t>20,38; 25,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 24,09</t>
+          <t>19,14; 24,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,84</t>
+          <t>15,63; 19,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 20,28</t>
+          <t>15,96; 20,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,33</t>
+          <t>24,5; 34,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 28,16</t>
+          <t>19,35; 28,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,11</t>
+          <t>15,6; 22,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 24,2</t>
+          <t>17,83; 24,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,67; 41,51</t>
+          <t>30,92; 41,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,07; 37,27</t>
+          <t>27,88; 37,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,54</t>
+          <t>24,45; 32,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,07; 30,66</t>
+          <t>24,98; 30,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,88</t>
+          <t>29,34; 36,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,29; 31,7</t>
+          <t>25,19; 31,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,87</t>
+          <t>20,99; 26,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,46</t>
+          <t>22,28; 26,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,63; 43,35</t>
+          <t>34,95; 43,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 38,65</t>
+          <t>30,1; 38,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,72; 37,0</t>
+          <t>29,64; 36,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 31,21</t>
+          <t>25,79; 31,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,38; 59,14</t>
+          <t>50,95; 58,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,08; 46,69</t>
+          <t>39,03; 46,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,97; 45,23</t>
+          <t>37,84; 45,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,22; 37,71</t>
+          <t>22,69; 37,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,3; 51,29</t>
+          <t>45,18; 50,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,52; 42,07</t>
+          <t>36,75; 42,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,17; 40,56</t>
+          <t>35,13; 40,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 33,64</t>
+          <t>24,71; 33,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,15; 21,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,06; 18,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 16,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 18,16</t>
+          <t>15,35; 18,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>28,04; 31,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,93; 27,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,86; 23,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,19; 23,84</t>
+          <t>20,25; 23,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,6; 25,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,52; 22,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>17,9; 19,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,85</t>
+          <t>18,58; 20,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,83</t>
+          <t>6,29; 11,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,58</t>
+          <t>5,8; 10,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,93</t>
+          <t>4,37; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,03</t>
+          <t>12,24; 18,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 14,31</t>
+          <t>7,81; 14,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,84</t>
+          <t>7,53; 13,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,88</t>
+          <t>9,9; 14,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,4</t>
+          <t>7,37; 11,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,62</t>
+          <t>6,73; 10,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 14,8</t>
+          <t>9,73; 14,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,56</t>
+          <t>7,3; 11,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,35</t>
+          <t>6,46; 11,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,92</t>
+          <t>15,31; 21,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,84</t>
+          <t>12,28; 18,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,55</t>
+          <t>8,5; 13,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,16</t>
+          <t>13,15; 17,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,9</t>
+          <t>10,15; 13,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,43</t>
+          <t>8,14; 11,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,31</t>
+          <t>14,23; 20,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,59</t>
+          <t>11,89; 17,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,83</t>
+          <t>7,51; 12,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,93</t>
+          <t>18,64; 25,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 22,94</t>
+          <t>16,59; 22,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,4</t>
+          <t>11,85; 17,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 21,78</t>
+          <t>17,59; 22,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,09</t>
+          <t>15,08; 19,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,72</t>
+          <t>10,25; 13,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 21,32</t>
+          <t>14,27; 21,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 19,35</t>
+          <t>13,01; 19,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,46</t>
+          <t>12,72; 18,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,29</t>
+          <t>24,23; 32,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 30,76</t>
+          <t>23,04; 30,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,83</t>
+          <t>16,61; 22,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 25,73</t>
+          <t>20,28; 25,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 24,12</t>
+          <t>18,99; 24,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,96</t>
+          <t>15,63; 19,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,5; 34,02</t>
+          <t>24,14; 33,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 28,62</t>
+          <t>19,64; 28,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,92</t>
+          <t>15,77; 23,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,92; 41,0</t>
+          <t>31,07; 40,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 37,43</t>
+          <t>28,1; 37,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,45; 32,94</t>
+          <t>24,47; 33,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,34; 36,05</t>
+          <t>29,45; 36,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,19; 31,73</t>
+          <t>25,41; 31,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,57</t>
+          <t>21,37; 27,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,95; 43,44</t>
+          <t>34,67; 43,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 38,66</t>
+          <t>29,89; 38,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,64; 36,79</t>
+          <t>29,82; 37,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,95; 58,6</t>
+          <t>51,06; 58,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,03; 46,67</t>
+          <t>39,19; 46,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,84; 45,26</t>
+          <t>37,84; 45,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,18; 50,88</t>
+          <t>45,29; 51,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,75; 42,11</t>
+          <t>36,51; 42,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,13; 40,49</t>
+          <t>35,03; 40,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,02</t>
+          <t>18,17; 21,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,77</t>
+          <t>16,09; 18,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 16,92</t>
+          <t>14,4; 16,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,33</t>
+          <t>28,06; 31,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,93; 27,03</t>
+          <t>23,96; 26,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 23,76</t>
+          <t>20,94; 23,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,6; 25,71</t>
+          <t>23,67; 25,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,52</t>
+          <t>20,52; 22,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,93</t>
+          <t>18,09; 20,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 11,09</t>
+          <t>6,24; 11,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,78</t>
+          <t>5,69; 11,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,34</t>
+          <t>4,35; 9,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,22</t>
+          <t>1,74; 8,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,82</t>
+          <t>12,52; 19,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,11</t>
+          <t>7,84; 14,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,59</t>
+          <t>7,49; 13,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 20,96</t>
+          <t>10,23; 21,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,0</t>
+          <t>9,98; 14,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,32</t>
+          <t>7,23; 11,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,71</t>
+          <t>6,8; 10,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,45</t>
+          <t>6,56; 13,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,59</t>
+          <t>10,0; 14,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,7</t>
+          <t>7,21; 11,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,41</t>
+          <t>6,5; 11,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,06</t>
+          <t>6,07; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,39</t>
+          <t>15,4; 21,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,06</t>
+          <t>12,23; 18,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,84</t>
+          <t>8,47; 13,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,63</t>
+          <t>9,13; 15,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,04</t>
+          <t>13,22; 17,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 13,79</t>
+          <t>10,3; 13,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,61</t>
+          <t>7,97; 11,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,18</t>
+          <t>8,52; 13,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,2</t>
+          <t>14,39; 20,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,54</t>
+          <t>11,79; 17,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,0</t>
+          <t>7,35; 12,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 17,5</t>
+          <t>11,36; 17,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 25,39</t>
+          <t>18,82; 25,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 22,53</t>
+          <t>16,81; 22,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 17,09</t>
+          <t>11,78; 16,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 17,08</t>
+          <t>12,28; 17,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,02</t>
+          <t>17,43; 21,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 19,23</t>
+          <t>15,01; 19,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 13,84</t>
+          <t>10,36; 13,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 16,37</t>
+          <t>12,47; 16,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,56</t>
+          <t>14,59; 21,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,71</t>
+          <t>13,3; 19,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 18,67</t>
+          <t>12,47; 18,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 18,27</t>
+          <t>11,6; 18,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,16</t>
+          <t>24,46; 32,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,04; 30,94</t>
+          <t>22,8; 30,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 22,92</t>
+          <t>16,58; 22,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 23,88</t>
+          <t>18,5; 24,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,28; 25,52</t>
+          <t>20,34; 25,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 24,23</t>
+          <t>18,93; 24,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,94</t>
+          <t>15,42; 19,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,96; 20,38</t>
+          <t>15,71; 20,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,14; 33,42</t>
+          <t>24,44; 33,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,64; 28,23</t>
+          <t>19,49; 28,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,77; 23,19</t>
+          <t>15,74; 23,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 24,34</t>
+          <t>17,92; 24,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,07; 40,74</t>
+          <t>31,67; 41,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,1; 37,2</t>
+          <t>28,07; 37,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,47; 33,33</t>
+          <t>24,18; 32,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,98; 30,96</t>
+          <t>25,07; 30,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 36,0</t>
+          <t>29,54; 35,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,41; 31,57</t>
+          <t>25,29; 31,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,37; 27,15</t>
+          <t>21,19; 26,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,28; 26,63</t>
+          <t>22,19; 26,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,67; 43,36</t>
+          <t>34,63; 43,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,89; 38,16</t>
+          <t>29,82; 38,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 37,33</t>
+          <t>29,72; 37,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,42</t>
+          <t>25,63; 31,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,06; 58,75</t>
+          <t>51,38; 59,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,19; 46,3</t>
+          <t>39,08; 46,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,84; 45,32</t>
+          <t>37,97; 45,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,69; 37,52</t>
+          <t>23,22; 37,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,29; 51,39</t>
+          <t>45,3; 51,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,51; 42,03</t>
+          <t>36,52; 42,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,03; 40,7</t>
+          <t>35,17; 40,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,71; 33,87</t>
+          <t>24,42; 33,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,02</t>
+          <t>18,06; 20,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,09; 18,75</t>
+          <t>15,99; 18,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,4; 16,97</t>
+          <t>14,51; 16,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,22</t>
+          <t>15,43; 18,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,06; 31,26</t>
+          <t>28,22; 31,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,96; 26,89</t>
+          <t>24,02; 27,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,94; 23,83</t>
+          <t>20,79; 23,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,96</t>
+          <t>20,19; 23,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,67; 25,72</t>
+          <t>23,63; 25,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,45</t>
+          <t>20,47; 22,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 20,06</t>
+          <t>18,04; 20,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,8</t>
+          <t>18,58; 20,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,56</t>
+          <t>1,7; 8,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 21,66</t>
+          <t>10,52; 22,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 13,03</t>
+          <t>6,33; 12,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,06</t>
+          <t>6,27; 13,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 15,88</t>
+          <t>6,68; 14,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,21</t>
+          <t>7,71; 12,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,34</t>
+          <t>11,41; 17,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 17,05</t>
+          <t>12,35; 17,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,3</t>
+          <t>12,56; 16,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,29</t>
+          <t>4,98; 17,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 24,16</t>
+          <t>17,0; 23,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 20,28</t>
+          <t>9,97; 19,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 24,2</t>
+          <t>18,13; 24,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,07; 30,66</t>
+          <t>25,23; 30,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,46</t>
+          <t>22,33; 26,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
           <t>32,79%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>48,22%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>39,23%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>21,82%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,63; 43,35</t>
+          <t>27,44; 38,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 38,65</t>
+          <t>23,46; 34,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,72; 37,0</t>
+          <t>22,12; 31,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 31,21</t>
+          <t>19,7; 26,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,38; 59,14</t>
+          <t>47,82; 57,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,08; 46,69</t>
+          <t>32,04; 41,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,97; 45,23</t>
+          <t>31,15; 41,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,22; 37,71</t>
+          <t>7,55; 32,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,3; 51,29</t>
+          <t>40,33; 47,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,52; 42,07</t>
+          <t>29,01; 36,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,17; 40,56</t>
+          <t>28,45; 34,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 33,64</t>
+          <t>10,97; 28,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>46,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>39,62%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>40,82; 54,31</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 48,62</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36,26; 47,58</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32,11; 41,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51,96; 62,89</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43,37; 53,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41,29; 52,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38,77; 45,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48,78; 57,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>41,79; 50,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 49,06</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>37,12; 42,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>18,06; 20,81</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>15,99; 18,74</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>14,51; 16,98</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 18,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 17,51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>28,22; 31,29</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>24,02; 27,03</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>20,79; 23,81</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20,19; 23,84</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 23,37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>23,63; 25,77</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>20,47; 22,53</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>18,04; 20,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,58; 20,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 20,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,22</t>
+          <t>6,26; 10,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,03</t>
+          <t>5,66; 10,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,28</t>
+          <t>4,62; 9,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 8,65</t>
+          <t>1,52; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,14</t>
+          <t>12,58; 19,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,18</t>
+          <t>7,47; 13,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,6</t>
+          <t>7,72; 13,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 22,05</t>
+          <t>10,61; 21,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,01</t>
+          <t>10,01; 13,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,21</t>
+          <t>7,11; 11,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,74</t>
+          <t>6,63; 10,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,64</t>
+          <t>6,33; 13,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,55</t>
+          <t>9,76; 14,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,82</t>
+          <t>7,33; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,52</t>
+          <t>6,55; 11,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,82</t>
+          <t>6,1; 13,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,59</t>
+          <t>15,45; 22,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,27</t>
+          <t>11,84; 17,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,68</t>
+          <t>8,44; 13,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,55</t>
+          <t>6,93; 14,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,11</t>
+          <t>13,12; 17,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 13,95</t>
+          <t>10,18; 13,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,72</t>
+          <t>8,17; 11,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,86</t>
+          <t>7,33; 12,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 20,14</t>
+          <t>13,95; 19,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,48</t>
+          <t>11,84; 17,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,29</t>
+          <t>7,62; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 17,4</t>
+          <t>11,21; 17,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,14</t>
+          <t>18,82; 25,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 22,85</t>
+          <t>16,78; 22,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 16,98</t>
+          <t>11,77; 17,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,22</t>
+          <t>12,47; 17,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 21,7</t>
+          <t>17,36; 21,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 19,25</t>
+          <t>15,03; 19,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,86</t>
+          <t>10,24; 13,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,46</t>
+          <t>12,41; 16,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,22</t>
+          <t>14,6; 21,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 19,63</t>
+          <t>13,33; 19,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,59</t>
+          <t>12,73; 18,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 17,51</t>
+          <t>5,13; 17,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 32,56</t>
+          <t>24,46; 32,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,57</t>
+          <t>23,03; 30,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,85</t>
+          <t>16,96; 22,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,2</t>
+          <t>16,93; 23,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 25,24</t>
+          <t>20,4; 25,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 24,09</t>
+          <t>19,08; 24,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,84</t>
+          <t>15,56; 19,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 19,32</t>
+          <t>9,09; 19,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,33</t>
+          <t>24,82; 33,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 28,16</t>
+          <t>19,46; 28,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,11</t>
+          <t>15,43; 23,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,43</t>
+          <t>18,13; 24,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,67; 41,51</t>
+          <t>31,43; 40,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,07; 37,27</t>
+          <t>28,27; 37,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,54</t>
+          <t>24,3; 32,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,23; 30,83</t>
+          <t>25,05; 31,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,88</t>
+          <t>29,6; 36,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,29; 31,7</t>
+          <t>25,33; 31,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,87</t>
+          <t>21,18; 27,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 26,59</t>
+          <t>22,45; 26,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,44; 38,36</t>
+          <t>28,35; 38,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,46; 34,06</t>
+          <t>23,2; 34,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,12; 31,59</t>
+          <t>22,17; 32,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,78</t>
+          <t>19,96; 26,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,82; 57,73</t>
+          <t>48,0; 58,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,04; 41,6</t>
+          <t>32,02; 42,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,15; 41,0</t>
+          <t>31,09; 41,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 32,5</t>
+          <t>9,13; 32,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,33; 47,54</t>
+          <t>40,32; 47,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,01; 36,63</t>
+          <t>29,07; 37,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,45; 34,93</t>
+          <t>28,12; 34,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,97; 28,54</t>
+          <t>11,85; 28,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,82; 54,31</t>
+          <t>40,57; 53,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,78; 48,62</t>
+          <t>35,58; 49,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,26; 47,58</t>
+          <t>35,91; 47,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,11; 41,44</t>
+          <t>31,96; 40,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,96; 62,89</t>
+          <t>51,38; 63,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,37; 53,6</t>
+          <t>43,4; 53,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,29; 52,89</t>
+          <t>41,51; 53,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,77; 45,36</t>
+          <t>38,65; 45,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,78; 57,66</t>
+          <t>48,78; 57,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,79; 50,23</t>
+          <t>41,32; 49,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,95; 49,06</t>
+          <t>40,38; 49,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,12; 42,27</t>
+          <t>37,22; 42,56</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,28; 21,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,01; 18,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 17,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,51</t>
+          <t>12,14; 17,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>27,97; 31,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,99; 26,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,88; 23,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,37</t>
+          <t>17,3; 23,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,52; 25,71</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,45; 22,52</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>18,06; 20,08</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,3; 20,24</t>
+          <t>16,43; 20,26</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41658</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36146</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28263</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16922</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72233</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45604</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>40956</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48129</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>113891</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81750</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69219</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65051</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30942; 54187</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25689; 47737</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19384; 40789</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6095; 35224</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>58811; 89072</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32010; 59490</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30544; 54321</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33065; 67999</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96282; 133506</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>62713; 98672</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54032; 86564</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45037; 92982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88698</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64275</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51580</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39850</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>115221</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90355</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61111</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55906</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203919</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>154630</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>112690</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95756</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>71770; 108504</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50282; 81628</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38665; 69059</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25827; 58121</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>96619; 137617</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72143; 108017</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47480; 76623</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35449; 73950</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>178601; 231842</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>131909; 179977</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94161; 134326</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68509; 120177</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109200</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98543</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64225</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75488</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>150786</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>139146</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>94258</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>80064</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>259986</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>237689</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>158483</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>155552</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>89124; 126419</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80704; 118191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50894; 80139</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59989; 93594</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>129810; 174342</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>118945; 162930</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77664; 113453</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67625; 94360</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>230592; 289210</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>208964; 268464</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>135978; 182594</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>133723; 177651</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>91369</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99666</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>99921</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106296</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>145787</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>163974</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127619</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>144503</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>237157</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>263640</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>227540</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>250799</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75793; 111813</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81804; 120792</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>82097; 119152</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45532; 156477</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>126124; 167946</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>141456; 187330</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>110059; 147866</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>120671; 165474</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>211114; 265011</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>234206; 299304</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>201386; 257455</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>145499; 306625</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>112341</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>102240</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91151</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>118777</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>145805</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>146514</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>140698</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>152673</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>258145</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>248754</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>231849</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>271449</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95967; 129826</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83586; 121018</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73593; 109994</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>101746; 139952</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>126971; 165460</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>126587; 168305</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>120206; 162706</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>137115; 170548</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>234068; 287206</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>222208; 276142</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>205769; 262412</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>248816; 295724</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>96711</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87265</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>89035</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>85534</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>182505</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>130410</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>135306</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>127417</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>279217</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>217676</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>224342</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>212951</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>82944; 113449</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71876; 106105</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>73918; 108515</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>73486; 98195</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>164592; 199167</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>113340; 150356</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>117446; 155124</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55507; 198485</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>256251; 303467</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>192983; 245740</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>199977; 248077</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>115654; 275853</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>99241</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>104449</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>107060</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>102123</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>190229</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>188481</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>186867</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>178299</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>289470</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>292931</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>293927</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>280423</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>85158; 112633</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>88560; 122380</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>92282; 121074</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>90364; 114248</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>171560; 210848</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>168802; 209577</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>165581; 211752</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>164244; 192802</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>265245; 314690</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>263579; 317718</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>264838; 322706</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>263437; 301184</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>639218</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>592584</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>531234</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>544990</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1002566</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>904486</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>786816</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>786991</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1641785</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1497070</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1318049</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1331981</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>598980; 689419</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>548288; 639920</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>491393; 576178</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>419986; 604028</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>945138; 1053966</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>852035; 957667</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>738735; 843103</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>632844; 859981</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1565663; 1710947</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1426614; 1570610</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1251189; 1390966</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1169148; 1441937</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>